--- a/05-OMNI_Modularize_2/v2/flows/reports/Test_results.xlsx
+++ b/05-OMNI_Modularize_2/v2/flows/reports/Test_results.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat.tran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\03-Performance Testing\01-K6 Load Test\05-OMNI_Modularize_2\v2\flows\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B0AF6-0CDB-428D-9F53-FD508614877D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D1FB6-D010-4F1B-AF8E-38E01F9738B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{66D3F21B-2F1A-48D3-9CB2-F52E0370F0B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" activeTab="4" xr2:uid="{66D3F21B-2F1A-48D3-9CB2-F52E0370F0B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="items" sheetId="4" r:id="rId1"/>
+    <sheet name="per-vu-iterations" sheetId="1" r:id="rId2"/>
+    <sheet name="ramping-vus" sheetId="2" r:id="rId3"/>
+    <sheet name="per-vu-iterations (QA)" sheetId="3" r:id="rId4"/>
+    <sheet name="ramping-vus (QA)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -87,8 +91,197 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dat Tan Tran</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{69A20966-83E8-4D06-841E-6207B926CA92}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Time sleep 1-3 second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{51E98F1E-9ED2-4C03-9CED-D2E5E0438869}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{04616079-E28A-4CE3-96B2-812FFE178E24}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{4D84C1F9-6A1B-43A4-83F3-1001D93E3652}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>request timeout with 200 VUs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dat Tan Tran</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{EDB4F517-C050-40D3-BC2D-3C95814D7B35}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Time sleep 1-3 second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{5D293359-036C-4301-AFAC-893C9DFDA32D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{965E952B-4124-4EB0-803D-67AD73807FDE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{583B682D-BAF7-4319-B290-0447432437F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>request timeout with 200 VUs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dat Tan Tran</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{10EF7737-F9D5-404C-A1A6-AAB8D29ACA10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Time sleep 1-3 second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5EC20BE2-3225-4A91-A387-7DED5DA31376}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1AEFFE94-3E33-4016-8689-BD653046B635}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{C6EB401A-E021-4CBE-A93D-748962DFD580}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>request timeout with 200 VUs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -267,13 +460,197 @@
   <si>
     <t>21922.37 ms at 95th/50 Vus
 45965.79 ms at 59th/100 Vus</t>
+  </si>
+  <si>
+    <t>ramping-vus</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Error 409, 0</t>
+  </si>
+  <si>
+    <t>Error 409, 500, 502</t>
+  </si>
+  <si>
+    <t>34%/10 | 25%/20 |20%/30 | &lt;15%/50</t>
+  </si>
+  <si>
+    <t>28%/10 | 22%/20 |18%/30 | &lt;10%/50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95%/10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 89%/20 | 87%/30 | 66%/50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100%/10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |30%/20 | 25%/30 | 11%/50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>88%/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |80%/20 | 46%/30 |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 32%/50</t>
+    </r>
+  </si>
+  <si>
+    <t>20%/10 | 2%/10 | &lt; 5%/50</t>
+  </si>
+  <si>
+    <t>100%/10 |</t>
+  </si>
+  <si>
+    <t>E1828</t>
+  </si>
+  <si>
+    <t>E1819</t>
+  </si>
+  <si>
+    <t>E1819C</t>
+  </si>
+  <si>
+    <t>E1838</t>
+  </si>
+  <si>
+    <t>L65403</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Storefront version: version=1.0.1-alpha1359943
+,source_version=bec19e82caa2d5ba53aa7763a4a426b57be762a2</t>
+  </si>
+  <si>
+    <t>Admin version: version:1.0.1-alpha1359552
+,source-verion:808bab7e6d2d34e7d050b97a66562bc8f7c65fd9
+,admin-source-verion:c2a876628ba0f4f464e48fde093495cefa2c843a</t>
+  </si>
+  <si>
+    <t>Storefront version: version=1.0.1-hotfix-id1359629
+,source_version=d08eea5a3fbf9b9124166c090f4e79d99d743996</t>
+  </si>
+  <si>
+    <t>Admin version: version:1.0.1-hotfix-id1359630
+,source-verion:0dad264c487e58c9e932d5eee70ef74edb5bdd20
+,admin-source-verion:847846f5239b4c3113f5be3571a9dfb411b29546</t>
+  </si>
+  <si>
+    <t>https://hei-oms-apac-qa-id-storefront-hotfix.azurewebsites.net/distributors/</t>
+  </si>
+  <si>
+    <t>https://hei-oms-apac-qa-id-storefront-hotfix.azurewebsites.net/distributors/orders</t>
+  </si>
+  <si>
+    <t>https://hei-oms-apac-qa-id-storefront.azurewebsites.net/distributors/orders</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Error </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>409</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 500, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>502</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +722,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111316"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111316"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,11 +861,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -523,12 +937,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2FFF4E43-C88B-4278-BB7B-12318887B177}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -837,11 +1301,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1F2BBB-3BCB-4FF3-9563-9F8EE9432176}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="48">
+        <v>10163</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <v>10164</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>53076</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>54026</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="50">
+        <v>10163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="50">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="50">
+        <v>65398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="50">
+        <v>10164</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1466ABAB-4E04-4A53-A132-03257D4B9E7E}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,19 +1410,17 @@
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -944,7 +1503,9 @@
       <c r="I2" s="8">
         <v>50</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -955,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="8"/>
-      <c r="Q2" s="31">
+      <c r="Q2" s="45">
         <v>1</v>
       </c>
     </row>
@@ -973,7 +1534,7 @@
       <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="38" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="11"/>
@@ -983,8 +1544,8 @@
       <c r="I3" s="11">
         <v>50</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>36</v>
+      <c r="J3" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -1025,7 +1586,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1060,7 +1621,9 @@
       <c r="F5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
       <c r="H5" s="8">
         <v>20</v>
       </c>
@@ -1068,7 +1631,7 @@
         <v>50</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1105,15 +1668,17 @@
       <c r="F6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
       <c r="H6" s="11">
         <v>20</v>
       </c>
       <c r="I6" s="11">
         <v>50</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>36</v>
+      <c r="J6" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
@@ -1127,7 +1692,6 @@
         <v>15</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1156,7 +1720,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>39</v>
@@ -1195,7 +1759,9 @@
       <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
       <c r="H8" s="8">
         <v>20</v>
       </c>
@@ -1203,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>39</v>
@@ -1214,11 +1780,9 @@
       <c r="O8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="P8" s="15"/>
       <c r="Q8" s="34" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1248,7 +1812,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>57</v>
@@ -1262,7 +1826,7 @@
       <c r="P9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="45">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1857,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1305,7 +1869,7 @@
       <c r="P10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="45">
         <v>1</v>
       </c>
     </row>
@@ -1335,8 +1899,8 @@
       <c r="I11" s="19">
         <v>50</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>36</v>
+      <c r="J11" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>37</v>
@@ -1356,9 +1920,1731 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{D111F5FA-7BF3-49A3-888E-48B56AC9FEF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B69929-36BC-4A89-AF25-A154AA42A28D}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="31"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
+        <v>50</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="32"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>50</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8">
+        <v>50</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8">
+        <v>50</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>100</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>50</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19">
+        <v>30</v>
+      </c>
+      <c r="J11" s="19">
+        <v>50</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="52"/>
+    </row>
+    <row r="19" spans="2:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{A1FD2B29-F4A7-45C3-ACDC-751C56FE5696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EDF3FC-A24A-4DA5-B298-34B74563C111}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8">
+        <v>50</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="45"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11">
+        <v>50</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>50</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8">
+        <v>50</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11">
+        <v>50</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="43"/>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8">
+        <v>50</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8">
+        <v>50</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8">
+        <v>50</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="45"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19">
+        <v>50</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{E08F93F0-F5B1-4F1A-85C1-27B92E77739B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03DDC85-B115-487B-A1F5-BA37BD0A5E4E}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="31"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
+        <v>50</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="32"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>50</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="46"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8">
+        <v>50</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8">
+        <v>50</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="44"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>100</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>50</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19">
+        <v>30</v>
+      </c>
+      <c r="J11" s="19">
+        <v>50</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="2:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="B18" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{6E0B2CDC-B622-42A4-A7A3-75C1E8F0EB2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/05-OMNI_Modularize_2/v2/flows/reports/Test_results.xlsx
+++ b/05-OMNI_Modularize_2/v2/flows/reports/Test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\03-Performance Testing\01-K6 Load Test\05-OMNI_Modularize_2\v2\flows\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D1FB6-D010-4F1B-AF8E-38E01F9738B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE04969-8776-4D6D-888D-FD0B131E03A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" activeTab="4" xr2:uid="{66D3F21B-2F1A-48D3-9CB2-F52E0370F0B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" activeTab="5" xr2:uid="{66D3F21B-2F1A-48D3-9CB2-F52E0370F0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="ramping-vus" sheetId="2" r:id="rId3"/>
     <sheet name="per-vu-iterations (QA)" sheetId="3" r:id="rId4"/>
     <sheet name="ramping-vus (QA)" sheetId="5" r:id="rId5"/>
+    <sheet name="Test cases" sheetId="6" r:id="rId6"/>
+    <sheet name="Test design" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -41,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Time sleep 1-3 second</t>
         </r>
@@ -54,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -67,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -104,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Time sleep 1-3 second</t>
         </r>
@@ -117,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -130,7 +132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -167,7 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Time sleep 1-3 second</t>
         </r>
@@ -180,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -193,7 +195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -230,7 +232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Time sleep 1-3 second</t>
         </r>
@@ -243,7 +245,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -256,7 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Expected transactions per second</t>
         </r>
@@ -280,8 +282,57 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dat Tan Tran</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2A135E82-4D2B-492B-BCA2-D4EA45FC6324}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time sleep 1-3 second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{D6FA6334-E73B-485F-9CD1-261AB131BB26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{93D54FCA-0C42-4EA9-9B05-0A67CC36B393}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -645,12 +696,166 @@
       <t>502</t>
     </r>
   </si>
+  <si>
+    <t>Login_001</t>
+  </si>
+  <si>
+    <t>Order_Create_001</t>
+  </si>
+  <si>
+    <t>Order_Edit_001</t>
+  </si>
+  <si>
+    <t>Order_Update_001</t>
+  </si>
+  <si>
+    <t>Order_Generate_Invoice_001</t>
+  </si>
+  <si>
+    <t>#Test number</t>
+  </si>
+  <si>
+    <t>Order_Create_002</t>
+  </si>
+  <si>
+    <t>Order_Edit_002</t>
+  </si>
+  <si>
+    <t>Order_Update_002</t>
+  </si>
+  <si>
+    <t>Order_Generate_Invoice_002</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>No errors during ramp-up/down, Stable response times and success rate</t>
+  </si>
+  <si>
+    <t>5 VUs in 1m → stay for 2m → ramp down to 0 in 1m.
+stages:
+{ duration: '1m', target: 5 },
+{ duration: '2m', target: 5 },
+{ duration: '1m', target: 0 }</t>
+  </si>
+  <si>
+    <t>50 VUs in 5m → stay for 30m → ramp down to 0 in 5m.
+stages:
+{ duration: '5m', target: 50 },
+{ duration: '30m', target: 50 },
+{ duration: '5m', target: 0 }</t>
+  </si>
+  <si>
+    <t>50 VUs in 5m → ramp down to 0 in 10s.
+stages:
+{ duration: '10s', target: 50 },
+{ duration: '10s', target: 0 }</t>
+  </si>
+  <si>
+    <t>10 stages, ramping by +10 VUs every minute.
+stages:
+{ duration: '10m', target: 10 },
+{ duration: '10m', target: 20 },
+{ duration: '10m', target: 30 },
+{ duration: '10m', target: 40 },
+{ duration: '10m', target: 50 },
+{ duration: '10m', target: 60 },
+{ duration: '10m', target: 70 },
+{ duration: '10m', target: 80 },
+{ duration: '10m', target: 90 },
+{ duration: '10m', target: 100 }</t>
+  </si>
+  <si>
+    <t>Application gracefully handles load increase</t>
+  </si>
+  <si>
+    <t>No memory leaks, timeouts, or resource exhaustion (Check CPU/memory usage of system)</t>
+  </si>
+  <si>
+    <t>App can recover gracefully from burst traffic, No crashes or lingering failures</t>
+  </si>
+  <si>
+    <t>stages:
+{ duration: '1m', target: 5 },
+{ duration: '2m', target: 5 },
+{ duration: '1m', target: 0 }</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Test types</t>
+  </si>
+  <si>
+    <t>Validate system behavior with gradual increase and decrease in load.</t>
+  </si>
+  <si>
+    <t>Smoke Test</t>
+  </si>
+  <si>
+    <t>Load Test</t>
+  </si>
+  <si>
+    <t>Simulate load that increases in steps</t>
+  </si>
+  <si>
+    <t>Determine performance stability over time</t>
+  </si>
+  <si>
+    <t>Soak Test</t>
+  </si>
+  <si>
+    <t>See how app recovers from sudden spikes</t>
+  </si>
+  <si>
+    <t>Spike Test</t>
+  </si>
+  <si>
+    <t>Identify the system’s max sustainable throughput</t>
+  </si>
+  <si>
+    <t>Breaking Point</t>
+  </si>
+  <si>
+    <t>Identify failure point (timeouts, 409, 5xx errors)</t>
+  </si>
+  <si>
+    <t>5 stages, ramping by +5 VUs every 5 minute.
+stages:
+{ duration: '5m', target: 5 },
+{ duration: '5m', target: 10 },
+{ duration: '5m', target: 15 },
+{ duration: '5m', target: 20 },
+{ duration: '5m', target: 0 }</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Order_Create_003</t>
+  </si>
+  <si>
+    <t>Order_Edit_003</t>
+  </si>
+  <si>
+    <t>Order_Update_003</t>
+  </si>
+  <si>
+    <t>Order_Generate_Invoice_003</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,7 +882,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -758,6 +963,80 @@
       <color rgb="FF111316"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,7 +1145,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -970,11 +1249,82 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1305,7 +1655,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,13 +1752,13 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="29" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
@@ -1481,7 +1831,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -1524,7 +1874,7 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -1563,7 +1913,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -1606,7 +1956,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -1653,7 +2003,7 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -1697,7 +2047,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -1744,7 +2094,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -1789,7 +2139,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1834,7 +2184,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -1877,7 +2227,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1921,17 +2271,17 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1950,13 +2300,13 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="29" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" hidden="1" customWidth="1"/>
@@ -2034,7 +2384,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -2078,7 +2428,7 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -2122,7 +2472,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2172,7 +2522,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2220,7 +2570,7 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2268,7 +2618,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -2320,7 +2670,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -2368,7 +2718,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -2414,7 +2764,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -2458,7 +2808,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2507,19 +2857,19 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>81</v>
       </c>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="2:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="52"/>
-    </row>
-    <row r="19" spans="2:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2538,13 +2888,13 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="29" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
@@ -2617,7 +2967,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -2658,7 +3008,7 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -2697,7 +3047,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2740,7 +3090,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2787,7 +3137,7 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2832,7 +3182,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -2877,7 +3227,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -2920,7 +3270,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -2963,7 +3313,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -3004,7 +3354,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3050,17 +3400,17 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3078,14 +3428,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03DDC85-B115-487B-A1F5-BA37BD0A5E4E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="29" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" hidden="1" customWidth="1"/>
@@ -3163,7 +3513,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -3207,7 +3557,7 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -3251,7 +3601,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3299,7 +3649,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -3345,7 +3695,7 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -3391,7 +3741,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -3441,7 +3791,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -3487,7 +3837,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -3533,7 +3883,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -3577,7 +3927,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3624,18 +3974,18 @@
       <c r="R11" s="41"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
         <v>77</v>
       </c>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="2:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3647,4 +3997,643 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A9D081-C538-4314-9CDA-63652B960BE1}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="30" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="77" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="78" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="85" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="66"/>
+      <c r="P2" s="69"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="66">
+        <v>10</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="66">
+        <v>50</v>
+      </c>
+      <c r="H4" s="66"/>
+      <c r="I4" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+    </row>
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="72"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="66">
+        <v>10</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="71"/>
+      <c r="P6" s="73"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66">
+        <v>50</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="73"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="66">
+        <v>10</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="71"/>
+      <c r="P9" s="74"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66">
+        <v>50</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="74"/>
+    </row>
+    <row r="11" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="66">
+        <v>10</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="71"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="66">
+        <v>50</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="66"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="74"/>
+    </row>
+    <row r="14" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="68"/>
+    </row>
+    <row r="16" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="81"/>
+    </row>
+    <row r="17" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="82"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="77"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF795E-F808-450F-8A78-48638B3D2541}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="58" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="63"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/05-OMNI_Modularize_2/v2/flows/reports/Test_results.xlsx
+++ b/05-OMNI_Modularize_2/v2/flows/reports/Test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\03-Performance Testing\01-K6 Load Test\05-OMNI_Modularize_2\v2\flows\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE04969-8776-4D6D-888D-FD0B131E03A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC12D7-2DE9-4A73-97A7-CCE8A646D5F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" activeTab="5" xr2:uid="{66D3F21B-2F1A-48D3-9CB2-F52E0370F0B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" xr2:uid="{66D3F21B-2F1A-48D3-9CB2-F52E0370F0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ramping-vus (QA)" sheetId="5" r:id="rId5"/>
     <sheet name="Test cases" sheetId="6" r:id="rId6"/>
     <sheet name="Test design" sheetId="7" r:id="rId7"/>
+    <sheet name="per-vu-iterations (hotfix_2_15)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -331,8 +332,71 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dat Tan Tran</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{B3A0737A-A8FE-4D5E-B72F-1F031A5B7CF6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time sleep 1-3 second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5421ECEA-CBD4-4A67-93CD-49CA4293D050}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5E9EC280-C8E7-4522-83C7-9040828169C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected transactions per second</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{203FD4E8-93EF-4A05-8570-30CC48694753}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>request timeout with 200 VUs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="132">
   <si>
     <t>#</t>
   </si>
@@ -849,6 +913,26 @@
   </si>
   <si>
     <t>Order_Generate_Invoice_003</t>
+  </si>
+  <si>
+    <t>Admin version: version:1.0.1-hotfix-id1369502
+,source-verion:804ffd55638bea14e22ceb18281678d54d085f7a
+,admin-source-verion:847846f5239b4c3113f5be3571a9dfb411b29546</t>
+  </si>
+  <si>
+    <t>10%/10 | 10%/20 | 2%/50</t>
+  </si>
+  <si>
+    <t>Actual checked Passes (request/vus)</t>
+  </si>
+  <si>
+    <t>1 | 1 | | 1 | 1</t>
+  </si>
+  <si>
+    <t>4 | 7 | 7 | 8</t>
+  </si>
+  <si>
+    <t>40%/10 | 35%/20 | 25%/30 | 16%/50</t>
   </si>
 </sst>
 </file>
@@ -1039,12 +1123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1145,7 +1235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1325,6 +1415,31 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1654,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1F2BBB-3BCB-4FF3-9563-9F8EE9432176}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +1867,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2415,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,7 +3003,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A9D081-C538-4314-9CDA-63652B960BE1}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4636,4 +4751,587 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF43D393-295C-4022-B345-234F76A246F1}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="29" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
+        <v>50</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88">
+        <v>4</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="90">
+        <v>10</v>
+      </c>
+      <c r="H5" s="90">
+        <v>20</v>
+      </c>
+      <c r="I5" s="90">
+        <v>30</v>
+      </c>
+      <c r="J5" s="90">
+        <v>50</v>
+      </c>
+      <c r="K5" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" s="93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>50</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>50</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <v>50</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>100</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>50</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="24"/>
+      <c r="S10" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95">
+        <v>10</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97">
+        <v>20</v>
+      </c>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97">
+        <v>50</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{349DDBBC-7F40-4D75-AA17-D5DFF629370B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>